--- a/files/[Plantilla] - Temperatura de operación.xlsx
+++ b/files/[Plantilla] - Temperatura de operación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himpe\Documents\GitHub\apps-energy-generation\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himpe\Documents\GitHub\app_nasa_power\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AC95BE-7BC7-48A3-89A3-2F2C7F9238CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A301D2ED-E37E-40AE-AD27-945BFAFC8766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0AFE8A92-0683-453F-B425-88E69E40E6AE}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0AFE8A92-0683-453F-B425-88E69E40E6AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Gef(W/m^2)</t>
+    <t>Tamb (°C)</t>
   </si>
   <si>
-    <t>Tamb(°C)</t>
+    <t>Gin (W/m²)</t>
   </si>
 </sst>
 </file>
@@ -439,18 +439,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBEE036-C6E2-48B4-88C1-C868285D5384}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
